--- a/1911-EE-000-L1.xlsx
+++ b/1911-EE-000-L1.xlsx
@@ -3,24 +3,23 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Scores Overview" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Detailed Grid" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="CLO PLO Results" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,10 +41,6 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
   </fonts>
   <fills count="7">
@@ -69,14 +64,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -140,8 +135,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +592,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1049,7 @@
     <col width="15.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -1455,7 +1448,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +1460,7 @@
     <col width="9.5703125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="45" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Modules</t>
@@ -2142,25 +2135,25 @@
           <t>Ahmed Ali 1912</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="C2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>100</v>
       </c>
       <c r="I2" s="6" t="inlineStr">
@@ -2175,25 +2168,25 @@
           <t>Stundent 2 1105</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="C3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>57</v>
       </c>
       <c r="I3" s="6" t="inlineStr">
@@ -2211,22 +2204,22 @@
       <c r="B4" s="7" t="n">
         <v>65</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="4" t="n">
         <v>72.5</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>42</v>
       </c>
       <c r="I4" s="6" t="inlineStr">
@@ -2241,25 +2234,25 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>57.5</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>28</v>
       </c>
       <c r="I5" s="6" t="inlineStr">
@@ -2274,25 +2267,25 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>97.5</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>11</v>
       </c>
       <c r="I6" s="6" t="inlineStr">
@@ -2307,25 +2300,25 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <v>77.5</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="4" t="n">
         <v>88</v>
       </c>
       <c r="I7" s="6" t="inlineStr">
@@ -2340,25 +2333,25 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>22.5</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>50</v>
       </c>
       <c r="I8" s="6" t="inlineStr">
@@ -2373,22 +2366,22 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <v>97.5</v>
       </c>
       <c r="H9" s="7" t="n">
@@ -2406,25 +2399,25 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="4" t="n">
         <v>77</v>
       </c>
       <c r="I10" s="6" t="inlineStr">
@@ -2439,25 +2432,25 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="4" t="n">
         <v>97.5</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="4" t="n">
         <v>84</v>
       </c>
       <c r="I11" s="6" t="inlineStr">
@@ -2472,25 +2465,25 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="n">
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>57.5</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <v>25</v>
       </c>
       <c r="I12" s="6" t="inlineStr">
@@ -2505,382 +2498,31 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="n">
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="4" t="n">
         <v>95</v>
       </c>
       <c r="I13" s="6" t="inlineStr">
         <is>
           <t>98.85% (A+)</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>CLO Performance Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>CLO</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Average Score</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Students Above 80%</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Students Below 60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CLO 0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CLO 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>72.5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CLO 2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CLO 3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CLO 4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>60.2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CLO 5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PLO Performance Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PLO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Average Score</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Students Above 80%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Students Below 60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>PLO 2</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>76.2</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PLO 3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>60.2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Overall Grade Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Grade Range</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Number of Students</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>A+ (95-100%)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A (90-94%)</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>A- (85-89%)</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="9" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>B+ (80-84%)</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>B (75-79%)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>B- (70-74%)</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C+ (67-69%)</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C (63-66%)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C- (60-62%)</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>F (&lt;60%)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
